--- a/data/pca/factorExposure/factorExposure_2014-12-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.005578366607926982</v>
+        <v>0.009353703796120726</v>
       </c>
       <c r="C2">
-        <v>-0.04610758990415416</v>
+        <v>-0.06176715371168663</v>
       </c>
       <c r="D2">
-        <v>-0.1738646619734005</v>
+        <v>0.02468282368773262</v>
       </c>
       <c r="E2">
-        <v>0.1222327267536148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.1628027830416028</v>
+      </c>
+      <c r="F2">
+        <v>-0.043965789749883</v>
+      </c>
+      <c r="G2">
+        <v>0.1053674447044162</v>
+      </c>
+      <c r="H2">
+        <v>0.06523953089356603</v>
+      </c>
+      <c r="I2">
+        <v>0.06916402679401938</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.02414564420875491</v>
+        <v>0.01494271763091315</v>
       </c>
       <c r="C4">
-        <v>-0.1339649968765097</v>
+        <v>-0.1484712846190262</v>
       </c>
       <c r="D4">
-        <v>-0.1121019031380817</v>
+        <v>-0.00445582237954396</v>
       </c>
       <c r="E4">
-        <v>0.05014640293561077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.1084373202626845</v>
+      </c>
+      <c r="F4">
+        <v>0.06733251462398707</v>
+      </c>
+      <c r="G4">
+        <v>0.04123168672085851</v>
+      </c>
+      <c r="H4">
+        <v>0.101773296375407</v>
+      </c>
+      <c r="I4">
+        <v>-0.02723783074533084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.01296471388849553</v>
+        <v>0.02889293092932768</v>
       </c>
       <c r="C6">
-        <v>-0.0598301609546654</v>
+        <v>-0.06828559570633586</v>
       </c>
       <c r="D6">
-        <v>-0.08186881705562908</v>
+        <v>0.00426958257349498</v>
       </c>
       <c r="E6">
-        <v>0.07423034940852377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.1086191665696585</v>
+      </c>
+      <c r="F6">
+        <v>-0.03468576446760042</v>
+      </c>
+      <c r="G6">
+        <v>-0.01349462374478436</v>
+      </c>
+      <c r="H6">
+        <v>0.0410282218832447</v>
+      </c>
+      <c r="I6">
+        <v>0.02962873540853206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.0127302798196304</v>
+        <v>0.005476322425374829</v>
       </c>
       <c r="C7">
-        <v>-0.0427714545337576</v>
+        <v>-0.0611846671245781</v>
       </c>
       <c r="D7">
-        <v>-0.05510937663144128</v>
+        <v>0.005279499524663351</v>
       </c>
       <c r="E7">
-        <v>0.04806037994504708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.06564754324814616</v>
+      </c>
+      <c r="F7">
+        <v>0.02826644651338682</v>
+      </c>
+      <c r="G7">
+        <v>-0.03818446705178654</v>
+      </c>
+      <c r="H7">
+        <v>0.08436323538348467</v>
+      </c>
+      <c r="I7">
+        <v>0.0008656756440841361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.01081030764240764</v>
+        <v>-0.008823109320484593</v>
       </c>
       <c r="C8">
-        <v>-0.06013626971679046</v>
+        <v>-0.06655315583400068</v>
       </c>
       <c r="D8">
-        <v>-0.08156502243360728</v>
+        <v>-0.01598724474673878</v>
       </c>
       <c r="E8">
-        <v>0.09940459761286548</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.08254578745721572</v>
+      </c>
+      <c r="F8">
+        <v>0.02504990648518366</v>
+      </c>
+      <c r="G8">
+        <v>0.0721732155012525</v>
+      </c>
+      <c r="H8">
+        <v>0.02325574856715058</v>
+      </c>
+      <c r="I8">
+        <v>0.008301481883238499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.01404731318938142</v>
+        <v>0.008346012678605805</v>
       </c>
       <c r="C9">
-        <v>-0.1171746265749944</v>
+        <v>-0.1195958591436125</v>
       </c>
       <c r="D9">
-        <v>-0.08742844240970155</v>
+        <v>-0.004341264222359546</v>
       </c>
       <c r="E9">
-        <v>0.0537861883953896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.0786654788262645</v>
+      </c>
+      <c r="F9">
+        <v>0.01406715552428978</v>
+      </c>
+      <c r="G9">
+        <v>0.009248349372156361</v>
+      </c>
+      <c r="H9">
+        <v>0.09980072238397822</v>
+      </c>
+      <c r="I9">
+        <v>-0.00176379300738255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2419273049210136</v>
+        <v>0.247321315742686</v>
       </c>
       <c r="C10">
-        <v>0.07691224649138077</v>
+        <v>0.0748937070430976</v>
       </c>
       <c r="D10">
-        <v>0.001797201550856415</v>
+        <v>-0.003528698787375597</v>
       </c>
       <c r="E10">
-        <v>-0.08839617299884865</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01497502778692394</v>
+      </c>
+      <c r="F10">
+        <v>0.004975369722651673</v>
+      </c>
+      <c r="G10">
+        <v>0.005859800380329823</v>
+      </c>
+      <c r="H10">
+        <v>0.03076593863469391</v>
+      </c>
+      <c r="I10">
+        <v>-0.1839596872403964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.00339737358796011</v>
+        <v>0.01000492800336975</v>
       </c>
       <c r="C11">
-        <v>-0.0512377927137925</v>
+        <v>-0.07447069402762679</v>
       </c>
       <c r="D11">
-        <v>-0.0415836866286117</v>
+        <v>-0.01124736229183297</v>
       </c>
       <c r="E11">
-        <v>0.03753706395909689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.0477825356875613</v>
+      </c>
+      <c r="F11">
+        <v>0.01291488496837893</v>
+      </c>
+      <c r="G11">
+        <v>-0.03002780518462703</v>
+      </c>
+      <c r="H11">
+        <v>0.03955922200679015</v>
+      </c>
+      <c r="I11">
+        <v>0.003985104874533859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.007620201200527809</v>
+        <v>0.01235620004349589</v>
       </c>
       <c r="C12">
-        <v>-0.05629432205924804</v>
+        <v>-0.06290100419980503</v>
       </c>
       <c r="D12">
-        <v>-0.0310573811394181</v>
+        <v>-0.002351381335586963</v>
       </c>
       <c r="E12">
-        <v>0.02579745806170046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03416051188390627</v>
+      </c>
+      <c r="F12">
+        <v>-0.01580128887833551</v>
+      </c>
+      <c r="G12">
+        <v>-0.03037514334684772</v>
+      </c>
+      <c r="H12">
+        <v>0.04280207043686653</v>
+      </c>
+      <c r="I12">
+        <v>-0.006167340829508225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.005768224571960051</v>
+        <v>0.002026372685796485</v>
       </c>
       <c r="C13">
-        <v>-0.06921159499529553</v>
+        <v>-0.1022635100710738</v>
       </c>
       <c r="D13">
-        <v>-0.1155596458090109</v>
+        <v>0.02018005667773618</v>
       </c>
       <c r="E13">
-        <v>0.1252822273468094</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.1585154539474357</v>
+      </c>
+      <c r="F13">
+        <v>-0.09231508099828448</v>
+      </c>
+      <c r="G13">
+        <v>-0.03285897703168131</v>
+      </c>
+      <c r="H13">
+        <v>0.09536471499900416</v>
+      </c>
+      <c r="I13">
+        <v>-0.08723444116088448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.004539392568394768</v>
+        <v>0.006306215151506665</v>
       </c>
       <c r="C14">
-        <v>-0.03644383216852188</v>
+        <v>-0.06404932872548395</v>
       </c>
       <c r="D14">
-        <v>-0.06000338710048844</v>
+        <v>-0.01533767812506133</v>
       </c>
       <c r="E14">
-        <v>0.07150216316596548</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.09925876445206974</v>
+      </c>
+      <c r="F14">
+        <v>-0.02876571432764875</v>
+      </c>
+      <c r="G14">
+        <v>-0.06265521158715452</v>
+      </c>
+      <c r="H14">
+        <v>0.1590831399927542</v>
+      </c>
+      <c r="I14">
+        <v>0.0332759607300726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.0009176237451731888</v>
+        <v>-0.002641236827651417</v>
       </c>
       <c r="C15">
-        <v>-0.05099771690437317</v>
+        <v>-0.06363467752663401</v>
       </c>
       <c r="D15">
-        <v>-0.0729942607107863</v>
+        <v>-0.0006119334085049229</v>
       </c>
       <c r="E15">
-        <v>0.07227907926307375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.06943802750392906</v>
+      </c>
+      <c r="F15">
+        <v>0.009251337139082862</v>
+      </c>
+      <c r="G15">
+        <v>-0.01342630752627202</v>
+      </c>
+      <c r="H15">
+        <v>0.05095566366963294</v>
+      </c>
+      <c r="I15">
+        <v>0.01405729098935898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.006199978224229134</v>
+        <v>0.01002608360364539</v>
       </c>
       <c r="C16">
-        <v>-0.04593639591196574</v>
+        <v>-0.06253543175896588</v>
       </c>
       <c r="D16">
-        <v>-0.03240619959648171</v>
+        <v>-0.003192499391725446</v>
       </c>
       <c r="E16">
-        <v>0.02634889065981338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.03378478353864005</v>
+      </c>
+      <c r="F16">
+        <v>-0.0003799252063409548</v>
+      </c>
+      <c r="G16">
+        <v>-0.03187319627797935</v>
+      </c>
+      <c r="H16">
+        <v>0.03701894832500006</v>
+      </c>
+      <c r="I16">
+        <v>-0.004737525787960831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1216,22 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1245,225 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.004018569183679867</v>
+        <v>0.002832132420421259</v>
       </c>
       <c r="C20">
-        <v>-0.04967787932332498</v>
+        <v>-0.07457053867379664</v>
       </c>
       <c r="D20">
-        <v>-0.07918134997172367</v>
+        <v>0.01061605246774199</v>
       </c>
       <c r="E20">
-        <v>0.04017706551607748</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.06980522168834676</v>
+      </c>
+      <c r="F20">
+        <v>0.01927301368218414</v>
+      </c>
+      <c r="G20">
+        <v>-0.05981941668718582</v>
+      </c>
+      <c r="H20">
+        <v>0.06652189673814127</v>
+      </c>
+      <c r="I20">
+        <v>0.0006414787787481911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.001185270867867122</v>
+        <v>0.005881038619789339</v>
       </c>
       <c r="C21">
-        <v>-0.0621000805102029</v>
+        <v>-0.07259680939426699</v>
       </c>
       <c r="D21">
-        <v>-0.1100495395941106</v>
+        <v>0.008050691178264251</v>
       </c>
       <c r="E21">
-        <v>0.04719206661709324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.1018685858034336</v>
+      </c>
+      <c r="F21">
+        <v>-0.07572862401173086</v>
+      </c>
+      <c r="G21">
+        <v>0.01011475644054561</v>
+      </c>
+      <c r="H21">
+        <v>0.1780144295919363</v>
+      </c>
+      <c r="I21">
+        <v>-0.04573708600177471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01151955637482987</v>
+        <v>-0.01605622281430191</v>
       </c>
       <c r="C22">
-        <v>-0.09000617217103225</v>
+        <v>-0.1237835397818226</v>
       </c>
       <c r="D22">
-        <v>-0.2758193498325846</v>
+        <v>0.06152275753330752</v>
       </c>
       <c r="E22">
-        <v>0.1012939548768378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.3083423066642978</v>
+      </c>
+      <c r="F22">
+        <v>0.1170786711122855</v>
+      </c>
+      <c r="G22">
+        <v>0.3245013115509005</v>
+      </c>
+      <c r="H22">
+        <v>-0.415618917078199</v>
+      </c>
+      <c r="I22">
+        <v>-0.03232568051702964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01186457001860732</v>
+        <v>-0.01264810377844352</v>
       </c>
       <c r="C23">
-        <v>-0.09178802985558493</v>
+        <v>-0.1278752945181876</v>
       </c>
       <c r="D23">
-        <v>-0.2746185281699012</v>
+        <v>0.06412280367258541</v>
       </c>
       <c r="E23">
-        <v>0.1005146503587353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.3037699524271996</v>
+      </c>
+      <c r="F23">
+        <v>0.1112589557208789</v>
+      </c>
+      <c r="G23">
+        <v>0.3147982541557419</v>
+      </c>
+      <c r="H23">
+        <v>-0.388230107840501</v>
+      </c>
+      <c r="I23">
+        <v>-0.03448079861275888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.003463311321317166</v>
+        <v>0.01149819143199077</v>
       </c>
       <c r="C24">
-        <v>-0.07549545558030574</v>
+        <v>-0.07959440350059795</v>
       </c>
       <c r="D24">
-        <v>-0.03295189684494974</v>
+        <v>-0.01707538949165324</v>
       </c>
       <c r="E24">
-        <v>0.03999404609566077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.04156946368507511</v>
+      </c>
+      <c r="F24">
+        <v>0.008181451142302837</v>
+      </c>
+      <c r="G24">
+        <v>-0.02911835569143851</v>
+      </c>
+      <c r="H24">
+        <v>0.05733386274852857</v>
+      </c>
+      <c r="I24">
+        <v>-0.000543241962977685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.007630655616962821</v>
+        <v>0.01570328604050899</v>
       </c>
       <c r="C25">
-        <v>-0.06537669673754933</v>
+        <v>-0.07397644259632163</v>
       </c>
       <c r="D25">
-        <v>-0.036868494016518</v>
+        <v>-0.007714456833629359</v>
       </c>
       <c r="E25">
-        <v>0.01962353664521157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03576876473635351</v>
+      </c>
+      <c r="F25">
+        <v>0.007630015369342766</v>
+      </c>
+      <c r="G25">
+        <v>-0.02813539812748795</v>
+      </c>
+      <c r="H25">
+        <v>0.03732608831667853</v>
+      </c>
+      <c r="I25">
+        <v>-0.01615879240020269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.003598510180310304</v>
+        <v>0.0164204382776008</v>
       </c>
       <c r="C26">
-        <v>-0.03672753908308284</v>
+        <v>-0.05607037113347505</v>
       </c>
       <c r="D26">
-        <v>-0.04738598215374094</v>
+        <v>-0.03378855624758151</v>
       </c>
       <c r="E26">
-        <v>0.06215845967632935</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.0700353669086313</v>
+      </c>
+      <c r="F26">
+        <v>-0.001527052741889952</v>
+      </c>
+      <c r="G26">
+        <v>-0.02006240401180065</v>
+      </c>
+      <c r="H26">
+        <v>0.1305069361844175</v>
+      </c>
+      <c r="I26">
+        <v>-0.01282496849167332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.3176182001255847</v>
+        <v>0.3135863934582392</v>
       </c>
       <c r="C28">
-        <v>0.09266173591120927</v>
+        <v>0.09590181825739558</v>
       </c>
       <c r="D28">
-        <v>0.002199484139911191</v>
+        <v>0.01320400872331217</v>
       </c>
       <c r="E28">
-        <v>-0.07892943354251045</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.01374154847736824</v>
+      </c>
+      <c r="F28">
+        <v>0.04137632179173738</v>
+      </c>
+      <c r="G28">
+        <v>0.0762932458577894</v>
+      </c>
+      <c r="H28">
+        <v>0.06801098199421463</v>
+      </c>
+      <c r="I28">
+        <v>-0.1945354649888375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001463483666862746</v>
+        <v>0.002900324379658604</v>
       </c>
       <c r="C29">
-        <v>-0.04321598068922278</v>
+        <v>-0.06952446575118523</v>
       </c>
       <c r="D29">
-        <v>-0.07450850955735576</v>
+        <v>-0.01064341923125757</v>
       </c>
       <c r="E29">
-        <v>0.08643088987430715</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1163071041359875</v>
+      </c>
+      <c r="F29">
+        <v>-0.0394226018068223</v>
+      </c>
+      <c r="G29">
+        <v>-0.0870924946951738</v>
+      </c>
+      <c r="H29">
+        <v>0.2011706172730563</v>
+      </c>
+      <c r="I29">
+        <v>0.05308814691015271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02063282876174759</v>
+        <v>0.019388482199259</v>
       </c>
       <c r="C30">
-        <v>-0.1355785858296278</v>
+        <v>-0.1419992579456247</v>
       </c>
       <c r="D30">
-        <v>-0.1198103330161124</v>
+        <v>-0.009272903571603593</v>
       </c>
       <c r="E30">
-        <v>0.09387362599061494</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.1097550405720173</v>
+      </c>
+      <c r="F30">
+        <v>0.02691508456116073</v>
+      </c>
+      <c r="G30">
+        <v>0.02088522257552182</v>
+      </c>
+      <c r="H30">
+        <v>0.03658760570155625</v>
+      </c>
+      <c r="I30">
+        <v>0.030133232328567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.006051670200673448</v>
+        <v>0.004441835990030861</v>
       </c>
       <c r="C31">
-        <v>-0.08287926474460026</v>
+        <v>-0.09211911776281916</v>
       </c>
       <c r="D31">
-        <v>-0.004932372788795092</v>
+        <v>-0.02123800860321678</v>
       </c>
       <c r="E31">
-        <v>0.03017902685939132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01712768547703053</v>
+      </c>
+      <c r="F31">
+        <v>-0.001469394725131972</v>
+      </c>
+      <c r="G31">
+        <v>0.01423362742994085</v>
+      </c>
+      <c r="H31">
+        <v>0.05222330836502688</v>
+      </c>
+      <c r="I31">
+        <v>-0.01854850395939131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01477053471268427</v>
+        <v>0.01748885968146717</v>
       </c>
       <c r="C32">
-        <v>-0.05405096572380402</v>
+        <v>-0.06118534344696119</v>
       </c>
       <c r="D32">
-        <v>-0.1310470256578628</v>
+        <v>0.02236383801339542</v>
       </c>
       <c r="E32">
-        <v>0.04729737490505163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.1107911361510291</v>
+      </c>
+      <c r="F32">
+        <v>-0.02889333494848771</v>
+      </c>
+      <c r="G32">
+        <v>0.03587559807516398</v>
+      </c>
+      <c r="H32">
+        <v>0.105321246282819</v>
+      </c>
+      <c r="I32">
+        <v>-0.2158266168249148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.002018499853890674</v>
+        <v>0.006486141972065491</v>
       </c>
       <c r="C33">
-        <v>-0.07947261787253822</v>
+        <v>-0.104817321647307</v>
       </c>
       <c r="D33">
-        <v>-0.05961410602675812</v>
+        <v>0.0007963820417952209</v>
       </c>
       <c r="E33">
-        <v>0.0553690486704612</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.07465424003671164</v>
+      </c>
+      <c r="F33">
+        <v>0.0012691211511039</v>
+      </c>
+      <c r="G33">
+        <v>-0.02651602087193828</v>
+      </c>
+      <c r="H33">
+        <v>0.06105004388769071</v>
+      </c>
+      <c r="I33">
+        <v>-0.03152153764716073</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.0002408203355170975</v>
+        <v>0.01023278938652861</v>
       </c>
       <c r="C34">
-        <v>-0.05299280499042175</v>
+        <v>-0.05630476914405456</v>
       </c>
       <c r="D34">
-        <v>-0.0202405544742313</v>
+        <v>-0.00824425351891182</v>
       </c>
       <c r="E34">
-        <v>0.02421237665312915</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0256347868692564</v>
+      </c>
+      <c r="F34">
+        <v>-0.01049498506126643</v>
+      </c>
+      <c r="G34">
+        <v>-0.03012392407817315</v>
+      </c>
+      <c r="H34">
+        <v>0.01438824941379176</v>
+      </c>
+      <c r="I34">
+        <v>-0.01839611290556915</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.001765216117569135</v>
+        <v>0.005871530582595775</v>
       </c>
       <c r="C35">
-        <v>-0.005960856459328936</v>
+        <v>-0.03190097092228124</v>
       </c>
       <c r="D35">
-        <v>-0.01269851277869146</v>
+        <v>6.804501298031318e-05</v>
       </c>
       <c r="E35">
-        <v>0.006172048513897944</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.04443751195282806</v>
+      </c>
+      <c r="F35">
+        <v>-0.007279011151643772</v>
+      </c>
+      <c r="G35">
+        <v>-0.03746041537133861</v>
+      </c>
+      <c r="H35">
+        <v>0.113597227674343</v>
+      </c>
+      <c r="I35">
+        <v>0.002689201395214542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.002079346051745203</v>
+        <v>0.009201597082659356</v>
       </c>
       <c r="C36">
-        <v>-0.03477877430371352</v>
+        <v>-0.04573360692311942</v>
       </c>
       <c r="D36">
-        <v>-0.04167645833131303</v>
+        <v>-0.02171069592205078</v>
       </c>
       <c r="E36">
-        <v>0.06579008796873409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.06657836451571272</v>
+      </c>
+      <c r="F36">
+        <v>0.0005760222496434806</v>
+      </c>
+      <c r="G36">
+        <v>-0.01461184543766862</v>
+      </c>
+      <c r="H36">
+        <v>0.07518117321378154</v>
+      </c>
+      <c r="I36">
+        <v>-0.002076434213143962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.004872655542132702</v>
+        <v>0.00525355318574607</v>
       </c>
       <c r="C38">
-        <v>-0.02954126746962753</v>
+        <v>-0.05348887710449839</v>
       </c>
       <c r="D38">
-        <v>-0.04947979745790919</v>
+        <v>-0.006732186308873486</v>
       </c>
       <c r="E38">
-        <v>0.04894394282570341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.07354618655117882</v>
+      </c>
+      <c r="F38">
+        <v>0.04424651567425345</v>
+      </c>
+      <c r="G38">
+        <v>-0.005024464195685429</v>
+      </c>
+      <c r="H38">
+        <v>0.06152285037046517</v>
+      </c>
+      <c r="I38">
+        <v>-0.03632344089755325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.005420302122046645</v>
+        <v>0.008891473811160797</v>
       </c>
       <c r="C39">
-        <v>-0.1043267797604914</v>
+        <v>-0.1203327495993547</v>
       </c>
       <c r="D39">
-        <v>-0.08263050490101684</v>
+        <v>-0.01855741865252207</v>
       </c>
       <c r="E39">
-        <v>0.06971370391623118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.07383286409543285</v>
+      </c>
+      <c r="F39">
+        <v>-0.009123806422189108</v>
+      </c>
+      <c r="G39">
+        <v>-0.04946777179010393</v>
+      </c>
+      <c r="H39">
+        <v>0.05226004067540584</v>
+      </c>
+      <c r="I39">
+        <v>0.04719959052567409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.001574123822910083</v>
+        <v>0.009205597471487397</v>
       </c>
       <c r="C40">
-        <v>-0.01701944976732687</v>
+        <v>-0.0531961344282181</v>
       </c>
       <c r="D40">
-        <v>-0.07655624425541481</v>
+        <v>0.006381622000184396</v>
       </c>
       <c r="E40">
-        <v>0.1058105278593458</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.1318902892412534</v>
+      </c>
+      <c r="F40">
+        <v>-0.01758261236733921</v>
+      </c>
+      <c r="G40">
+        <v>-0.06720865956327014</v>
+      </c>
+      <c r="H40">
+        <v>-0.002658952995309591</v>
+      </c>
+      <c r="I40">
+        <v>-0.01349994838531657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.00317685033943572</v>
+        <v>0.01608475037058986</v>
       </c>
       <c r="C41">
-        <v>-0.02638396733862831</v>
+        <v>-0.048324545723573</v>
       </c>
       <c r="D41">
-        <v>0.002361326985609153</v>
+        <v>-0.003562611875037966</v>
       </c>
       <c r="E41">
-        <v>-0.005294680327462808</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.005485899403513781</v>
+      </c>
+      <c r="F41">
+        <v>0.003189867292023405</v>
+      </c>
+      <c r="G41">
+        <v>-0.01123728476771409</v>
+      </c>
+      <c r="H41">
+        <v>0.03311848888395177</v>
+      </c>
+      <c r="I41">
+        <v>-0.04660406066173555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.006195549355797816</v>
+        <v>0.008181753178734548</v>
       </c>
       <c r="C43">
-        <v>-0.01792998659822595</v>
+        <v>-0.04025970489280002</v>
       </c>
       <c r="D43">
-        <v>-0.01948591492926317</v>
+        <v>-0.01238923872182583</v>
       </c>
       <c r="E43">
-        <v>0.02092758491270351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.03166741300203455</v>
+      </c>
+      <c r="F43">
+        <v>0.0144108749978315</v>
+      </c>
+      <c r="G43">
+        <v>-0.02029632320594618</v>
+      </c>
+      <c r="H43">
+        <v>0.05001989424472527</v>
+      </c>
+      <c r="I43">
+        <v>-0.02372477797715728</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.0184073111286861</v>
+        <v>0.007028138890148739</v>
       </c>
       <c r="C44">
-        <v>-0.08373207565834886</v>
+        <v>-0.0904511824239435</v>
       </c>
       <c r="D44">
-        <v>-0.09330219610026144</v>
+        <v>-0.02309220095389468</v>
       </c>
       <c r="E44">
-        <v>0.06430237436148965</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.09809652437341304</v>
+      </c>
+      <c r="F44">
+        <v>0.01146349482592744</v>
+      </c>
+      <c r="G44">
+        <v>0.005769752578876554</v>
+      </c>
+      <c r="H44">
+        <v>0.03153035936528901</v>
+      </c>
+      <c r="I44">
+        <v>0.02176581431059237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.004802710737196495</v>
+        <v>-0.002164400470994304</v>
       </c>
       <c r="C46">
-        <v>-0.04610507623442385</v>
+        <v>-0.06042407975618012</v>
       </c>
       <c r="D46">
-        <v>-0.0625482650354698</v>
+        <v>-0.01453182156444105</v>
       </c>
       <c r="E46">
-        <v>0.08829303713091918</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.07830025292719107</v>
+      </c>
+      <c r="F46">
+        <v>0.001372835398038671</v>
+      </c>
+      <c r="G46">
+        <v>-0.05030052299022653</v>
+      </c>
+      <c r="H46">
+        <v>0.1205436406546525</v>
+      </c>
+      <c r="I46">
+        <v>0.01305967830618808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.01892961162352043</v>
+        <v>0.02148909699611167</v>
       </c>
       <c r="C47">
-        <v>-0.125272656334015</v>
+        <v>-0.1092716630153193</v>
       </c>
       <c r="D47">
-        <v>0.01086778867221774</v>
+        <v>-0.02475222230361393</v>
       </c>
       <c r="E47">
-        <v>-0.02353358908131571</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01332917377756795</v>
+      </c>
+      <c r="F47">
+        <v>0.01011925978740407</v>
+      </c>
+      <c r="G47">
+        <v>0.005248525032238408</v>
+      </c>
+      <c r="H47">
+        <v>0.07705944239341059</v>
+      </c>
+      <c r="I47">
+        <v>-0.03150888284712323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.007712919536237735</v>
+        <v>0.01509788937170547</v>
       </c>
       <c r="C48">
-        <v>-0.03466973595979817</v>
+        <v>-0.04951785550781096</v>
       </c>
       <c r="D48">
-        <v>-0.03086168168439301</v>
+        <v>-0.03201771643361671</v>
       </c>
       <c r="E48">
-        <v>0.0830980949978329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.07101244042421007</v>
+      </c>
+      <c r="F48">
+        <v>0.007431034760372475</v>
+      </c>
+      <c r="G48">
+        <v>-0.01883568531386137</v>
+      </c>
+      <c r="H48">
+        <v>0.1235351652989646</v>
+      </c>
+      <c r="I48">
+        <v>0.00558049007876584</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.003762798370552826</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.009010438908270127</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.009259921137059453</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.00250325826462847</v>
+      </c>
+      <c r="F49">
+        <v>-0.008154743363891404</v>
+      </c>
+      <c r="G49">
+        <v>-0.01789802510077804</v>
+      </c>
+      <c r="H49">
+        <v>-0.006832663788908662</v>
+      </c>
+      <c r="I49">
+        <v>-0.002941525203946483</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.001221289434227665</v>
+        <v>0.008090600938892842</v>
       </c>
       <c r="C50">
-        <v>-0.05275407078365127</v>
+        <v>-0.07016677451368046</v>
       </c>
       <c r="D50">
-        <v>-0.02997592261773243</v>
+        <v>-0.0009704783201313139</v>
       </c>
       <c r="E50">
-        <v>0.02791044246052164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03254952155309959</v>
+      </c>
+      <c r="F50">
+        <v>0.01138457121525773</v>
+      </c>
+      <c r="G50">
+        <v>0.009020584950994887</v>
+      </c>
+      <c r="H50">
+        <v>0.05505020661071773</v>
+      </c>
+      <c r="I50">
+        <v>-0.04000388923082174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.006739209331294807</v>
+        <v>-0.004466110184999213</v>
       </c>
       <c r="C51">
-        <v>-0.03577148238119755</v>
+        <v>-0.03451205902326673</v>
       </c>
       <c r="D51">
-        <v>-0.07974914742284028</v>
+        <v>-0.001079384103835707</v>
       </c>
       <c r="E51">
-        <v>0.0582259497632223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.06298725123433932</v>
+      </c>
+      <c r="F51">
+        <v>-0.002945561870798927</v>
+      </c>
+      <c r="G51">
+        <v>0.003308594857234024</v>
+      </c>
+      <c r="H51">
+        <v>0.108651811607923</v>
+      </c>
+      <c r="I51">
+        <v>0.02440298430894072</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.05523428876555612</v>
+        <v>0.05384954069369148</v>
       </c>
       <c r="C53">
-        <v>-0.1625679902182458</v>
+        <v>-0.1530385601694745</v>
       </c>
       <c r="D53">
-        <v>0.05185529556290887</v>
+        <v>-0.04571246773269068</v>
       </c>
       <c r="E53">
-        <v>-0.02261979175360307</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.08404229234908663</v>
+      </c>
+      <c r="F53">
+        <v>0.006812258465027365</v>
+      </c>
+      <c r="G53">
+        <v>0.03054291201611132</v>
+      </c>
+      <c r="H53">
+        <v>0.01401996708933695</v>
+      </c>
+      <c r="I53">
+        <v>-0.01857669116298725</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.007141465494448855</v>
+        <v>0.01369980382801278</v>
       </c>
       <c r="C54">
-        <v>-0.0390508705661068</v>
+        <v>-0.06052622154783855</v>
       </c>
       <c r="D54">
-        <v>-0.06725080762611803</v>
+        <v>0.01861250404192969</v>
       </c>
       <c r="E54">
-        <v>0.01946893832284736</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.05198908553866211</v>
+      </c>
+      <c r="F54">
+        <v>0.01270540335616232</v>
+      </c>
+      <c r="G54">
+        <v>-0.01123640048975758</v>
+      </c>
+      <c r="H54">
+        <v>0.0911329845949848</v>
+      </c>
+      <c r="I54">
+        <v>0.0342664916784863</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.04095399727991958</v>
+        <v>0.0330555566606723</v>
       </c>
       <c r="C55">
-        <v>-0.1237406733106311</v>
+        <v>-0.1090320170969672</v>
       </c>
       <c r="D55">
-        <v>0.04593589667309272</v>
+        <v>-0.0484817650359893</v>
       </c>
       <c r="E55">
-        <v>0.000338542368769609</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0641032239160657</v>
+      </c>
+      <c r="F55">
+        <v>-0.005508250036352428</v>
+      </c>
+      <c r="G55">
+        <v>0.02039538705024769</v>
+      </c>
+      <c r="H55">
+        <v>0.02103625372357442</v>
+      </c>
+      <c r="I55">
+        <v>0.02279899195780772</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.05727981833069388</v>
+        <v>0.04811364225514909</v>
       </c>
       <c r="C56">
-        <v>-0.1976817822308216</v>
+        <v>-0.1827489380073032</v>
       </c>
       <c r="D56">
-        <v>0.07522214508023296</v>
+        <v>-0.0702961684972369</v>
       </c>
       <c r="E56">
-        <v>-0.04730766160126468</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.1167908749100916</v>
+      </c>
+      <c r="F56">
+        <v>-0.003483795176547036</v>
+      </c>
+      <c r="G56">
+        <v>0.07118194562535884</v>
+      </c>
+      <c r="H56">
+        <v>0.002255430873193818</v>
+      </c>
+      <c r="I56">
+        <v>-0.01813901985024231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01364562996232416</v>
+        <v>0.007976517757782643</v>
       </c>
       <c r="C58">
-        <v>-0.1270258073953822</v>
+        <v>-0.1501105261876206</v>
       </c>
       <c r="D58">
-        <v>-0.2887541992297027</v>
+        <v>0.04690464276379206</v>
       </c>
       <c r="E58">
-        <v>0.09756070124729416</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.2551005581612161</v>
+      </c>
+      <c r="F58">
+        <v>0.05888980112790919</v>
+      </c>
+      <c r="G58">
+        <v>0.2384063192558256</v>
+      </c>
+      <c r="H58">
+        <v>-0.00298088610779136</v>
+      </c>
+      <c r="I58">
+        <v>0.02303965995063853</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.252180189095039</v>
+        <v>0.27317714626585</v>
       </c>
       <c r="C59">
-        <v>0.0357561900104132</v>
+        <v>0.03809174008544687</v>
       </c>
       <c r="D59">
-        <v>-0.07190132191999041</v>
+        <v>0.01576612813031452</v>
       </c>
       <c r="E59">
-        <v>-0.004842783757572998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.0462353972324835</v>
+      </c>
+      <c r="F59">
+        <v>-0.0198227301645462</v>
+      </c>
+      <c r="G59">
+        <v>0.01896198046217495</v>
+      </c>
+      <c r="H59">
+        <v>-0.02124787089621037</v>
+      </c>
+      <c r="I59">
+        <v>-0.09992736929253422</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.123497083110748</v>
+        <v>0.1458785190560143</v>
       </c>
       <c r="C60">
-        <v>-0.1543785266621398</v>
+        <v>-0.1649129796818734</v>
       </c>
       <c r="D60">
-        <v>-0.002344411606341484</v>
+        <v>-0.02040444697109447</v>
       </c>
       <c r="E60">
-        <v>0.04579286855748333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01607954852241503</v>
+      </c>
+      <c r="F60">
+        <v>-0.1069972002379836</v>
+      </c>
+      <c r="G60">
+        <v>-0.271693421738062</v>
+      </c>
+      <c r="H60">
+        <v>-0.2786283464304059</v>
+      </c>
+      <c r="I60">
+        <v>0.06080101388042113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.0094456302001166</v>
+        <v>0.01479050334538898</v>
       </c>
       <c r="C61">
-        <v>-0.0766159051262618</v>
+        <v>-0.09910435935215525</v>
       </c>
       <c r="D61">
-        <v>-0.04564555146931344</v>
+        <v>-0.01943995543056812</v>
       </c>
       <c r="E61">
-        <v>0.05677802113520387</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.05474325263541445</v>
+      </c>
+      <c r="F61">
+        <v>-0.00028501261949651</v>
+      </c>
+      <c r="G61">
+        <v>-0.05500243075596802</v>
+      </c>
+      <c r="H61">
+        <v>0.057428149581903</v>
+      </c>
+      <c r="I61">
+        <v>0.01841750564511627</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0006300056317203635</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.000633488833782205</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.001254405861817132</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.0004428502555095471</v>
+      </c>
+      <c r="F62">
+        <v>0.0009937459990366302</v>
+      </c>
+      <c r="G62">
+        <v>0.002068386445472061</v>
+      </c>
+      <c r="H62">
+        <v>0.005424150710220412</v>
+      </c>
+      <c r="I62">
+        <v>-0.002335623247451695</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.004598978526860957</v>
+        <v>0.01556747296938388</v>
       </c>
       <c r="C63">
-        <v>-0.0547894836316954</v>
+        <v>-0.07107717491651709</v>
       </c>
       <c r="D63">
-        <v>-0.03989167670049198</v>
+        <v>-0.02438691621545989</v>
       </c>
       <c r="E63">
-        <v>0.03444964612414435</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0508105750784759</v>
+      </c>
+      <c r="F63">
+        <v>-0.002800692904664152</v>
+      </c>
+      <c r="G63">
+        <v>-0.03326134552779013</v>
+      </c>
+      <c r="H63">
+        <v>0.07660425980381944</v>
+      </c>
+      <c r="I63">
+        <v>-0.0184510063965423</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.00977453966651737</v>
+        <v>0.0118928832326989</v>
       </c>
       <c r="C64">
-        <v>-0.1234504249745979</v>
+        <v>-0.1074055859256963</v>
       </c>
       <c r="D64">
-        <v>0.005138797789721302</v>
+        <v>-0.01940716411494262</v>
       </c>
       <c r="E64">
-        <v>0.04685557519282904</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.01704541872995472</v>
+      </c>
+      <c r="F64">
+        <v>0.03019055708371105</v>
+      </c>
+      <c r="G64">
+        <v>-0.02408126657930896</v>
+      </c>
+      <c r="H64">
+        <v>-0.00616135371458932</v>
+      </c>
+      <c r="I64">
+        <v>-0.01248709313853971</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01752981288570795</v>
+        <v>0.02429893926310598</v>
       </c>
       <c r="C65">
-        <v>-0.06330615971493617</v>
+        <v>-0.08276704544477317</v>
       </c>
       <c r="D65">
-        <v>-0.06832472222293277</v>
+        <v>0.01308302143416067</v>
       </c>
       <c r="E65">
-        <v>0.05740591411382339</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.09367135020343072</v>
+      </c>
+      <c r="F65">
+        <v>0.01128423326251205</v>
+      </c>
+      <c r="G65">
+        <v>-0.06942194478573765</v>
+      </c>
+      <c r="H65">
+        <v>-0.006831648919006325</v>
+      </c>
+      <c r="I65">
+        <v>0.02932611776384251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.003747892563666849</v>
+        <v>0.006882396984162028</v>
       </c>
       <c r="C66">
-        <v>-0.1247594678426381</v>
+        <v>-0.1490203910157588</v>
       </c>
       <c r="D66">
-        <v>-0.1148564878815155</v>
+        <v>0.002546539366311722</v>
       </c>
       <c r="E66">
-        <v>0.07874090478764866</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.09114956670768992</v>
+      </c>
+      <c r="F66">
+        <v>-0.0005107771482672035</v>
+      </c>
+      <c r="G66">
+        <v>-0.022900097081352</v>
+      </c>
+      <c r="H66">
+        <v>0.05167610213298412</v>
+      </c>
+      <c r="I66">
+        <v>0.03878602418463383</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01522864184434448</v>
+        <v>0.01594539750040162</v>
       </c>
       <c r="C67">
-        <v>-0.02979137043112532</v>
+        <v>-0.05012787209619743</v>
       </c>
       <c r="D67">
-        <v>0.0002107181955555205</v>
+        <v>-0.021305190679555</v>
       </c>
       <c r="E67">
-        <v>0.03924002580260992</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.03908735948648776</v>
+      </c>
+      <c r="F67">
+        <v>0.03528423020838321</v>
+      </c>
+      <c r="G67">
+        <v>-0.03803261887447493</v>
+      </c>
+      <c r="H67">
+        <v>0.03929439894332741</v>
+      </c>
+      <c r="I67">
+        <v>-0.021641099879251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2515445041332345</v>
+        <v>0.2836464401433653</v>
       </c>
       <c r="C68">
-        <v>0.03990466983923608</v>
+        <v>0.04060806541360773</v>
       </c>
       <c r="D68">
-        <v>-0.0534344780086615</v>
+        <v>0.03642090119131166</v>
       </c>
       <c r="E68">
-        <v>-0.01216032198574563</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.04086349541455024</v>
+      </c>
+      <c r="F68">
+        <v>0.005437917110747599</v>
+      </c>
+      <c r="G68">
+        <v>0.05592646250752455</v>
+      </c>
+      <c r="H68">
+        <v>-0.02519106115538996</v>
+      </c>
+      <c r="I68">
+        <v>-0.09786857833252928</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.0190955064227258</v>
+        <v>0.01049705905601062</v>
       </c>
       <c r="C69">
-        <v>-0.1193467992362983</v>
+        <v>-0.09052731651384767</v>
       </c>
       <c r="D69">
-        <v>0.024973150336516</v>
+        <v>-0.02420308177591612</v>
       </c>
       <c r="E69">
-        <v>0.02315886706885245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01533465060991272</v>
+      </c>
+      <c r="F69">
+        <v>0.01281633980449311</v>
+      </c>
+      <c r="G69">
+        <v>-0.002410689260300337</v>
+      </c>
+      <c r="H69">
+        <v>0.04933954044139022</v>
+      </c>
+      <c r="I69">
+        <v>-0.0350555150244552</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2652440309022723</v>
+        <v>0.2711142927963671</v>
       </c>
       <c r="C71">
-        <v>0.06888161522194691</v>
+        <v>0.06636028412916978</v>
       </c>
       <c r="D71">
-        <v>-0.04701599217922345</v>
+        <v>0.02191331831947891</v>
       </c>
       <c r="E71">
-        <v>-0.03632425256424562</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03943445391896973</v>
+      </c>
+      <c r="F71">
+        <v>0.02895963597390598</v>
+      </c>
+      <c r="G71">
+        <v>0.01002016016860152</v>
+      </c>
+      <c r="H71">
+        <v>0.06400097532204739</v>
+      </c>
+      <c r="I71">
+        <v>-0.117476007547077</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.05934942932319275</v>
+        <v>0.05750233324459746</v>
       </c>
       <c r="C72">
-        <v>-0.1624933468265901</v>
+        <v>-0.1545977904855482</v>
       </c>
       <c r="D72">
-        <v>-0.03285920166899893</v>
+        <v>-0.01324727082029876</v>
       </c>
       <c r="E72">
-        <v>0.1079333329272114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01733220435080341</v>
+      </c>
+      <c r="F72">
+        <v>-0.01547080457449656</v>
+      </c>
+      <c r="G72">
+        <v>-0.04277733492354817</v>
+      </c>
+      <c r="H72">
+        <v>-0.0452260242555698</v>
+      </c>
+      <c r="I72">
+        <v>0.09079303123050289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.104371890408856</v>
+        <v>0.1453020038332395</v>
       </c>
       <c r="C73">
-        <v>-0.163853739225532</v>
+        <v>-0.2041088096805986</v>
       </c>
       <c r="D73">
-        <v>0.0201096779863546</v>
+        <v>-0.03780277254491014</v>
       </c>
       <c r="E73">
-        <v>0.05135870577879208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.02062482465273841</v>
+      </c>
+      <c r="F73">
+        <v>-0.1167739536752398</v>
+      </c>
+      <c r="G73">
+        <v>-0.446693765405174</v>
+      </c>
+      <c r="H73">
+        <v>-0.2750373114080792</v>
+      </c>
+      <c r="I73">
+        <v>-0.02462646732955485</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.04385143336637327</v>
+        <v>0.04136127838590439</v>
       </c>
       <c r="C74">
-        <v>-0.1233475788277095</v>
+        <v>-0.1178907688483342</v>
       </c>
       <c r="D74">
-        <v>0.07470136423901853</v>
+        <v>-0.04602568830387768</v>
       </c>
       <c r="E74">
-        <v>-0.007807954998994508</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.06867443440971618</v>
+      </c>
+      <c r="F74">
+        <v>0.01029525009059454</v>
+      </c>
+      <c r="G74">
+        <v>0.01545344398184884</v>
+      </c>
+      <c r="H74">
+        <v>0.01772308341841592</v>
+      </c>
+      <c r="I74">
+        <v>0.01588856305705733</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1062543495880528</v>
+        <v>0.07351585779608903</v>
       </c>
       <c r="C75">
-        <v>-0.2462181918074034</v>
+        <v>-0.2154633403059092</v>
       </c>
       <c r="D75">
-        <v>0.1839431363571419</v>
+        <v>-0.09497320578512936</v>
       </c>
       <c r="E75">
-        <v>-0.07426920933343605</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.2193701855143837</v>
+      </c>
+      <c r="F75">
+        <v>0.08263689315933805</v>
+      </c>
+      <c r="G75">
+        <v>0.08435607282659549</v>
+      </c>
+      <c r="H75">
+        <v>-0.01179608293449969</v>
+      </c>
+      <c r="I75">
+        <v>-0.06618519266028484</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.04868424319405351</v>
+        <v>0.04105615763857198</v>
       </c>
       <c r="C76">
-        <v>-0.1568634878643387</v>
+        <v>-0.1507952132391208</v>
       </c>
       <c r="D76">
-        <v>0.07889384215878034</v>
+        <v>-0.07062110527034914</v>
       </c>
       <c r="E76">
-        <v>-0.01398429356979949</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0906409654494584</v>
+      </c>
+      <c r="F76">
+        <v>-0.0008766604604632888</v>
+      </c>
+      <c r="G76">
+        <v>-0.0004680072771033317</v>
+      </c>
+      <c r="H76">
+        <v>0.02183247353426816</v>
+      </c>
+      <c r="I76">
+        <v>-0.0005793397902303821</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02385786017895112</v>
+        <v>0.02096635448866709</v>
       </c>
       <c r="C77">
-        <v>-0.1353618303032064</v>
+        <v>-0.2135121102181626</v>
       </c>
       <c r="D77">
-        <v>-0.460441689156984</v>
+        <v>0.940658802425129</v>
       </c>
       <c r="E77">
-        <v>-0.800401438714107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.2218056575098333</v>
+      </c>
+      <c r="F77">
+        <v>0.02168318504280362</v>
+      </c>
+      <c r="G77">
+        <v>-0.02813932034463381</v>
+      </c>
+      <c r="H77">
+        <v>0.04936447946144243</v>
+      </c>
+      <c r="I77">
+        <v>0.02906691815638979</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.01984997829945961</v>
+        <v>0.02251918506228626</v>
       </c>
       <c r="C78">
-        <v>-0.1292108952227129</v>
+        <v>-0.1203189906710496</v>
       </c>
       <c r="D78">
-        <v>-0.1234303534180551</v>
+        <v>-0.0443042370520963</v>
       </c>
       <c r="E78">
-        <v>0.07623274163245562</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.07023524538079465</v>
+      </c>
+      <c r="F78">
+        <v>-0.01642243281360642</v>
+      </c>
+      <c r="G78">
+        <v>0.07889240793065135</v>
+      </c>
+      <c r="H78">
+        <v>0.1452043219502842</v>
+      </c>
+      <c r="I78">
+        <v>0.1180252455621703</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.07504931523981903</v>
+        <v>0.06107785567000386</v>
       </c>
       <c r="C79">
-        <v>-0.3016661414387869</v>
+        <v>-0.2278465950701738</v>
       </c>
       <c r="D79">
-        <v>0.2066417919135028</v>
+        <v>-0.0917990993089137</v>
       </c>
       <c r="E79">
-        <v>-0.09416691190540967</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.2380978520129909</v>
+      </c>
+      <c r="F79">
+        <v>0.00949433779153333</v>
+      </c>
+      <c r="G79">
+        <v>0.1669249497143615</v>
+      </c>
+      <c r="H79">
+        <v>0.0413751539635357</v>
+      </c>
+      <c r="I79">
+        <v>-0.08325233125456483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.01065709422775721</v>
+        <v>0.006998333286590234</v>
       </c>
       <c r="C80">
-        <v>-0.06052298431735355</v>
+        <v>-0.0592723056774774</v>
       </c>
       <c r="D80">
-        <v>-0.004202216219151029</v>
+        <v>-0.03211666673071639</v>
       </c>
       <c r="E80">
-        <v>0.04560339757923955</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.05225103044307446</v>
+      </c>
+      <c r="F80">
+        <v>-0.07245970829807466</v>
+      </c>
+      <c r="G80">
+        <v>-0.04248484671826796</v>
+      </c>
+      <c r="H80">
+        <v>-0.04149733701689865</v>
+      </c>
+      <c r="I80">
+        <v>-0.04716683159690015</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.04351894339753102</v>
+        <v>0.02513410582588614</v>
       </c>
       <c r="C81">
-        <v>-0.1517862851955548</v>
+        <v>-0.1347092030363701</v>
       </c>
       <c r="D81">
-        <v>0.1132851032301727</v>
+        <v>-0.04889864336824178</v>
       </c>
       <c r="E81">
-        <v>-0.05495414644096343</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.09987219100186458</v>
+      </c>
+      <c r="F81">
+        <v>0.01743294454166423</v>
+      </c>
+      <c r="G81">
+        <v>0.05730547304349152</v>
+      </c>
+      <c r="H81">
+        <v>0.0653045427157965</v>
+      </c>
+      <c r="I81">
+        <v>-0.07342779337368328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.08135753862171921</v>
+        <v>0.05697164295972128</v>
       </c>
       <c r="C82">
-        <v>-0.2188137499167486</v>
+        <v>-0.1723178516180819</v>
       </c>
       <c r="D82">
-        <v>0.1513122065978382</v>
+        <v>-0.08836616966231414</v>
       </c>
       <c r="E82">
-        <v>-0.04799313093051055</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1530724335368021</v>
+      </c>
+      <c r="F82">
+        <v>0.003236137737369336</v>
+      </c>
+      <c r="G82">
+        <v>0.04258690950651488</v>
+      </c>
+      <c r="H82">
+        <v>0.04138997765988853</v>
+      </c>
+      <c r="I82">
+        <v>-0.05537825759746583</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.01104309112647777</v>
+        <v>-0.001532504832442226</v>
       </c>
       <c r="C83">
-        <v>-0.0579371933520791</v>
+        <v>-0.01272613807294968</v>
       </c>
       <c r="D83">
-        <v>-0.05570844333410586</v>
+        <v>0.03769953265934873</v>
       </c>
       <c r="E83">
-        <v>0.00533958243163463</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02085444857182332</v>
+      </c>
+      <c r="F83">
+        <v>-0.9300750121362955</v>
+      </c>
+      <c r="G83">
+        <v>0.2446725355951791</v>
+      </c>
+      <c r="H83">
+        <v>-0.02226881478583488</v>
+      </c>
+      <c r="I83">
+        <v>-0.0980782046231756</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.003508687570239782</v>
+        <v>-0.002323043420488895</v>
       </c>
       <c r="C84">
-        <v>-0.02303391910225274</v>
+        <v>-0.03578891291510367</v>
       </c>
       <c r="D84">
-        <v>-0.04099070267151616</v>
+        <v>-0.0358400484694316</v>
       </c>
       <c r="E84">
-        <v>0.06307666828261091</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.07003790290493447</v>
+      </c>
+      <c r="F84">
+        <v>0.04736585082319949</v>
+      </c>
+      <c r="G84">
+        <v>0.05836046177087058</v>
+      </c>
+      <c r="H84">
+        <v>0.06201070396223095</v>
+      </c>
+      <c r="I84">
+        <v>0.05511492184603163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.05400397478621255</v>
+        <v>0.03729987332904096</v>
       </c>
       <c r="C85">
-        <v>-0.1827632961732629</v>
+        <v>-0.152177811372107</v>
       </c>
       <c r="D85">
-        <v>0.1288620745939147</v>
+        <v>-0.08867370134982193</v>
       </c>
       <c r="E85">
-        <v>-0.02997973317018228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1540789936337683</v>
+      </c>
+      <c r="F85">
+        <v>0.008900359852518979</v>
+      </c>
+      <c r="G85">
+        <v>0.06777739928522832</v>
+      </c>
+      <c r="H85">
+        <v>0.01850616720152204</v>
+      </c>
+      <c r="I85">
+        <v>-0.03522957978113906</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02014141165323028</v>
+        <v>0.01345488119210558</v>
       </c>
       <c r="C86">
-        <v>-0.04396642915566185</v>
+        <v>-0.0689491500292258</v>
       </c>
       <c r="D86">
-        <v>-0.09643298689155907</v>
+        <v>0.01838220868576583</v>
       </c>
       <c r="E86">
-        <v>-0.04127352471345399</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.06157663152146409</v>
+      </c>
+      <c r="F86">
+        <v>0.0429801124241316</v>
+      </c>
+      <c r="G86">
+        <v>0.07540110181838439</v>
+      </c>
+      <c r="H86">
+        <v>0.07266081095279323</v>
+      </c>
+      <c r="I86">
+        <v>-0.08080601712901569</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.0200151248038071</v>
+        <v>0.01419103791427112</v>
       </c>
       <c r="C87">
-        <v>-0.09680598609240479</v>
+        <v>-0.1141314746322211</v>
       </c>
       <c r="D87">
-        <v>-0.1522802504748389</v>
+        <v>0.03417780884047881</v>
       </c>
       <c r="E87">
-        <v>0.07196593774389315</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.1206823447899414</v>
+      </c>
+      <c r="F87">
+        <v>0.02043178586267633</v>
+      </c>
+      <c r="G87">
+        <v>0.0346906234329326</v>
+      </c>
+      <c r="H87">
+        <v>0.0225384906784411</v>
+      </c>
+      <c r="I87">
+        <v>0.1393877720716778</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.0205195082322858</v>
+        <v>0.0322869300246303</v>
       </c>
       <c r="C88">
-        <v>-0.08287998438400883</v>
+        <v>-0.08692343578559132</v>
       </c>
       <c r="D88">
-        <v>0.04975008541229798</v>
+        <v>-0.02680950933583346</v>
       </c>
       <c r="E88">
-        <v>0.007161437371840839</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01256094002384598</v>
+      </c>
+      <c r="F88">
+        <v>0.003480602965191118</v>
+      </c>
+      <c r="G88">
+        <v>-0.02355844318493281</v>
+      </c>
+      <c r="H88">
+        <v>0.01003473544639198</v>
+      </c>
+      <c r="I88">
+        <v>-0.02985533005436024</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4535841265264967</v>
+        <v>0.4132411150268721</v>
       </c>
       <c r="C89">
-        <v>0.1428242510113415</v>
+        <v>0.1270937172449201</v>
       </c>
       <c r="D89">
-        <v>0.007478688500929516</v>
+        <v>0.008446460813123705</v>
       </c>
       <c r="E89">
-        <v>0.2534882434163299</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.04031768305374522</v>
+      </c>
+      <c r="F89">
+        <v>-0.06874211263018444</v>
+      </c>
+      <c r="G89">
+        <v>0.1013849520155956</v>
+      </c>
+      <c r="H89">
+        <v>0.05753229820278962</v>
+      </c>
+      <c r="I89">
+        <v>0.7865060503219607</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.3235447018650613</v>
+        <v>0.3237631875145524</v>
       </c>
       <c r="C90">
-        <v>0.09196820895121331</v>
+        <v>0.07770181993762577</v>
       </c>
       <c r="D90">
-        <v>-0.08824512693192882</v>
+        <v>0.02590124557647277</v>
       </c>
       <c r="E90">
-        <v>-0.006762771943106345</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.05442154255278032</v>
+      </c>
+      <c r="F90">
+        <v>0.01232006062890333</v>
+      </c>
+      <c r="G90">
+        <v>0.01639678368207698</v>
+      </c>
+      <c r="H90">
+        <v>-0.01795480923026404</v>
+      </c>
+      <c r="I90">
+        <v>-0.1554088337986035</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.05813651865806002</v>
+        <v>0.05433605890619458</v>
       </c>
       <c r="C91">
-        <v>-0.1780936544292197</v>
+        <v>-0.1431147830314769</v>
       </c>
       <c r="D91">
-        <v>0.109878320941839</v>
+        <v>-0.04903369265113072</v>
       </c>
       <c r="E91">
-        <v>-0.05978585053050686</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.1305140200874873</v>
+      </c>
+      <c r="F91">
+        <v>-0.02871063364144656</v>
+      </c>
+      <c r="G91">
+        <v>0.05585806519451782</v>
+      </c>
+      <c r="H91">
+        <v>0.01163580723635535</v>
+      </c>
+      <c r="I91">
+        <v>-0.02422951024130124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3409103882582784</v>
+        <v>0.3482809216442085</v>
       </c>
       <c r="C92">
-        <v>0.1251738919085754</v>
+        <v>0.11949602467803</v>
       </c>
       <c r="D92">
-        <v>-0.06006471549312523</v>
+        <v>0.05051258878763576</v>
       </c>
       <c r="E92">
-        <v>-0.05296056494746609</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.05079057105117595</v>
+      </c>
+      <c r="F92">
+        <v>0.0937360407410527</v>
+      </c>
+      <c r="G92">
+        <v>0.02670291149793306</v>
+      </c>
+      <c r="H92">
+        <v>0.03805494046464915</v>
+      </c>
+      <c r="I92">
+        <v>-0.1681215895546905</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3371166902172738</v>
+        <v>0.3275840523050513</v>
       </c>
       <c r="C93">
-        <v>0.1041853155561646</v>
+        <v>0.1083017236461559</v>
       </c>
       <c r="D93">
-        <v>0.01465383409246463</v>
+        <v>-0.005999894168941824</v>
       </c>
       <c r="E93">
-        <v>-0.02408519560781642</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.008627940578069404</v>
+      </c>
+      <c r="F93">
+        <v>0.01916717772717871</v>
+      </c>
+      <c r="G93">
+        <v>0.03153554258572037</v>
+      </c>
+      <c r="H93">
+        <v>0.04061455867066707</v>
+      </c>
+      <c r="I93">
+        <v>-0.1037958067133701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1140706315053434</v>
+        <v>0.09206852873319357</v>
       </c>
       <c r="C94">
-        <v>-0.2957696293192934</v>
+        <v>-0.2414696338633191</v>
       </c>
       <c r="D94">
-        <v>0.2800669841163484</v>
+        <v>-0.1460394946662042</v>
       </c>
       <c r="E94">
-        <v>-0.08479908759328898</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.3823147905023265</v>
+      </c>
+      <c r="F94">
+        <v>0.03627879982987438</v>
+      </c>
+      <c r="G94">
+        <v>0.265938018893311</v>
+      </c>
+      <c r="H94">
+        <v>-0.1127520200818994</v>
+      </c>
+      <c r="I94">
+        <v>0.1668042642456835</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.03419425672454068</v>
+        <v>0.03465270948064091</v>
       </c>
       <c r="C95">
-        <v>-0.06556743443578428</v>
+        <v>-0.110535641403399</v>
       </c>
       <c r="D95">
-        <v>-0.006249709375545084</v>
+        <v>-0.0004974554511208061</v>
       </c>
       <c r="E95">
-        <v>0.0228320904423935</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.02924922022509812</v>
+      </c>
+      <c r="F95">
+        <v>0.02721347001322297</v>
+      </c>
+      <c r="G95">
+        <v>-0.1213851392647112</v>
+      </c>
+      <c r="H95">
+        <v>0.05842666438726211</v>
+      </c>
+      <c r="I95">
+        <v>0.004663441023345113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.003032909902238027</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.006631872000173765</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0181869786418131</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.008996408514241872</v>
+      </c>
+      <c r="F97">
+        <v>0.01534344359193716</v>
+      </c>
+      <c r="G97">
+        <v>-0.01669526632897449</v>
+      </c>
+      <c r="H97">
+        <v>0.003061313699815191</v>
+      </c>
+      <c r="I97">
+        <v>-0.02296922009825017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.08318854011628794</v>
+        <v>0.1249806353022879</v>
       </c>
       <c r="C98">
-        <v>-0.1363561556992857</v>
+        <v>-0.1648101194653475</v>
       </c>
       <c r="D98">
-        <v>-0.03891258359808726</v>
+        <v>-0.04039508096080727</v>
       </c>
       <c r="E98">
-        <v>0.05921225148296448</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.04822637844661406</v>
+      </c>
+      <c r="F98">
+        <v>-0.0773970273114756</v>
+      </c>
+      <c r="G98">
+        <v>-0.3803553998385661</v>
+      </c>
+      <c r="H98">
+        <v>-0.3243429684555182</v>
+      </c>
+      <c r="I98">
+        <v>0.02860681267065855</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.0005757976033364089</v>
+        <v>0.003139416654910549</v>
       </c>
       <c r="C101">
-        <v>-0.04177715037937559</v>
+        <v>-0.06803474543122813</v>
       </c>
       <c r="D101">
-        <v>-0.07301640469399258</v>
+        <v>-0.009999545846977353</v>
       </c>
       <c r="E101">
-        <v>0.08464822924255576</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.114797925038156</v>
+      </c>
+      <c r="F101">
+        <v>-0.03904437723188584</v>
+      </c>
+      <c r="G101">
+        <v>-0.08616279871754097</v>
+      </c>
+      <c r="H101">
+        <v>0.1989404793763891</v>
+      </c>
+      <c r="I101">
+        <v>0.05147799200585784</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.03249302189203199</v>
+        <v>0.01328648616081288</v>
       </c>
       <c r="C102">
-        <v>-0.102894529023728</v>
+        <v>-0.05445434342126539</v>
       </c>
       <c r="D102">
-        <v>0.06422307142068244</v>
+        <v>-0.02604386873360088</v>
       </c>
       <c r="E102">
-        <v>-0.02111900632841129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.07135781704674579</v>
+      </c>
+      <c r="F102">
+        <v>-0.007802467031912621</v>
+      </c>
+      <c r="G102">
+        <v>0.03637719496201664</v>
+      </c>
+      <c r="H102">
+        <v>0.002184544156970108</v>
+      </c>
+      <c r="I102">
+        <v>0.00837605199075836</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
